--- a/丽莎花园西餐.xlsx
+++ b/丽莎花园西餐.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="麗莎花园西餐厅（旧物仓店）" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="麗莎花园西餐厅（旧物仓店）" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -345,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG17"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2387,6 +2455,1596 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>3420.00</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>2904</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>3420.00</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>2904</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>3420.00</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>2904</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2022-03-17</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>1377.00</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>1377</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2947.00</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>2689</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2947.00</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>2689</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>2947.00</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>2689</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2947.00</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>2689</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2947.00</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>2689</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2947.00</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>2689</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>1167.00</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>1167.00</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>1167.00</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>1167.00</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
